--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -403,9 +403,55 @@
         <v>remark</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="str">
+        <v>video</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>405.34000000000003</v>
+      </c>
+      <c r="E2">
+        <v>405.34000000000003</v>
+      </c>
+      <c r="F2" t="str">
+        <v>test</v>
+      </c>
+      <c r="G2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="str">
+        <v>video</v>
+      </c>
+      <c r="C3">
+        <v>405.34000000000003</v>
+      </c>
+      <c r="D3">
+        <v>868.04</v>
+      </c>
+      <c r="E3">
+        <v>462.69999999999993</v>
+      </c>
+      <c r="F3" t="str">
+        <v>test2</v>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -408,19 +408,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="str">
-        <v>video</v>
+        <v>myvideo</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>405.34000000000003</v>
+        <v>408.01</v>
       </c>
       <c r="E2">
-        <v>405.34000000000003</v>
+        <v>408.01</v>
       </c>
       <c r="F2" t="str">
-        <v>test</v>
+        <v>test1</v>
       </c>
       <c r="G2" t="str">
         <v/>
@@ -431,27 +431,50 @@
         <v>1</v>
       </c>
       <c r="B3" t="str">
-        <v>video</v>
+        <v>myvideo</v>
       </c>
       <c r="C3">
-        <v>405.34000000000003</v>
+        <v>408.01</v>
       </c>
       <c r="D3">
-        <v>868.04</v>
+        <v>620.62</v>
       </c>
       <c r="E3">
-        <v>462.69999999999993</v>
+        <v>212.61</v>
       </c>
       <c r="F3" t="str">
+        <v>test1</v>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="str">
+        <v>myvideo</v>
+      </c>
+      <c r="C4">
+        <v>620.62</v>
+      </c>
+      <c r="D4">
+        <v>998.95</v>
+      </c>
+      <c r="E4">
+        <v>378.33000000000004</v>
+      </c>
+      <c r="F4" t="str">
         <v>test2</v>
       </c>
-      <c r="G3" t="str">
+      <c r="G4" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
   </ignoredErrors>
 </worksheet>
 </file>